--- a/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
+++ b/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorgan/Documents/PostDoc/Diff_Tax_Analysis/Theoretical_Analysis/Interpolat_Diff_Tax/Money_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15362889-17A0-4247-9267-0DA9BE3D6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AAD0B-AF8C-A749-9FF7-625BF3A26444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="760" windowWidth="15060" windowHeight="14140" xr2:uid="{41DE4A9E-354A-C947-8AF3-BFD4A954794B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Antibiotic Class</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Amphenicols</t>
   </si>
   <si>
-    <t>Penicillin</t>
-  </si>
-  <si>
     <t>Sulphonamides</t>
   </si>
   <si>
@@ -102,6 +99,21 @@
   </si>
   <si>
     <t>chinese_price</t>
+  </si>
+  <si>
+    <t>Penicillin (Beta-lactams)</t>
+  </si>
+  <si>
+    <t>Price5</t>
+  </si>
+  <si>
+    <t>Price6</t>
+  </si>
+  <si>
+    <t>Price7</t>
+  </si>
+  <si>
+    <t>Price8</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD6BD6-5BEF-9C4F-865E-676CD3C4F9B8}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,36 +482,48 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,48 +533,48 @@
       <c r="C2">
         <v>476</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <f>AVERAGE(B2:E2)</f>
         <v>326.3</v>
       </c>
-      <c r="G2">
-        <f>F2*0.15</f>
+      <c r="K2">
+        <f>J2*0.15</f>
         <v>48.945</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>1121.2277777777779</v>
       </c>
-      <c r="I2">
-        <f>G2/H2</f>
+      <c r="M2">
+        <f>K2/L2</f>
         <v>4.3653039079184025E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>228.33</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">AVERAGE(B3:E3)</f>
+      <c r="J3">
+        <f>AVERAGE(B3:E3)</f>
         <v>228.33</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">F3*0.15</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="0">J3*0.15</f>
         <v>34.249499999999998</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>2502.5333333333338</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="2">G3/H3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="1">K3/L3</f>
         <v>1.3685931589322816E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>273.33</v>
@@ -565,24 +589,36 @@
         <v>593.33000000000004</v>
       </c>
       <c r="F4">
+        <v>540</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>433.33</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(B4:I4)</f>
+        <v>453.53999999999996</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>288.7475</v>
-      </c>
-      <c r="G4">
+        <v>68.030999999999992</v>
+      </c>
+      <c r="L4">
+        <v>534.16666666666663</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="1"/>
-        <v>43.312125000000002</v>
-      </c>
-      <c r="H4">
-        <v>534.16666666666663</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>8.1083541341653673E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.12735912636505459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>273.33</v>
@@ -593,25 +629,25 @@
       <c r="D5">
         <v>166.66</v>
       </c>
-      <c r="F5">
+      <c r="J5">
+        <f>AVERAGE(B5:E5)</f>
+        <v>210.54999999999998</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>210.54999999999998</v>
-      </c>
-      <c r="G5">
+        <v>31.582499999999996</v>
+      </c>
+      <c r="L5">
+        <v>1221.2877500976626</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="1"/>
-        <v>31.582499999999996</v>
-      </c>
-      <c r="H5">
-        <v>1221.2877500976626</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
         <v>2.585999900308051E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>786.33</v>
@@ -619,25 +655,25 @@
       <c r="C6">
         <v>490</v>
       </c>
-      <c r="F6">
+      <c r="J6">
+        <f>AVERAGE(B6:E6)</f>
+        <v>638.16499999999996</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>638.16499999999996</v>
-      </c>
-      <c r="G6">
+        <v>95.724749999999986</v>
+      </c>
+      <c r="L6">
+        <v>19352.792063492063</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="1"/>
-        <v>95.724749999999986</v>
-      </c>
-      <c r="H6">
-        <v>19352.792063492063</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
         <v>4.9463017887005183E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>630</v>
@@ -645,114 +681,114 @@
       <c r="C7">
         <v>196.667</v>
       </c>
-      <c r="F7">
+      <c r="J7">
+        <f>AVERAGE(B7:E7)</f>
+        <v>413.33350000000002</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>413.33350000000002</v>
-      </c>
-      <c r="G7">
+        <v>62.000025000000001</v>
+      </c>
+      <c r="L7">
+        <v>13591.999999999998</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>62.000025000000001</v>
-      </c>
-      <c r="H7">
-        <v>13591.999999999998</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
         <v>4.5615086080047097E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>176.66</v>
       </c>
-      <c r="F8">
+      <c r="J8">
+        <f>AVERAGE(B8:E8)</f>
+        <v>176.66</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>176.66</v>
-      </c>
-      <c r="G8">
+        <v>26.498999999999999</v>
+      </c>
+      <c r="L8">
+        <v>5318.8</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>26.498999999999999</v>
-      </c>
-      <c r="H8">
-        <v>5318.8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
         <v>4.982138828307137E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>372.66</v>
       </c>
-      <c r="F9">
+      <c r="J9">
+        <f>AVERAGE(B9:E9)</f>
+        <v>372.66</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>372.66</v>
-      </c>
-      <c r="G9">
+        <v>55.899000000000001</v>
+      </c>
+      <c r="L9">
+        <v>766.33333333333337</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>55.899000000000001</v>
-      </c>
-      <c r="H9">
-        <v>766.33333333333337</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
         <v>7.2943453675511083E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>9.202</v>
-      </c>
-      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>10.894457454330663</v>
+      </c>
+      <c r="L10">
         <v>292.47699999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>220</v>
       </c>
-      <c r="F11">
+      <c r="J11">
+        <f>AVERAGE(B11:E11)</f>
+        <v>220</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(I2:I9)</f>
-        <v>3.1464489239220558E-2</v>
+        <f>AVERAGE(M2:M9)</f>
+        <v>3.7248937367145671E-2</v>
       </c>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <f>H10*I16</f>
-        <v>9.2026394192195102</v>
+        <f>L10*I16</f>
+        <v>10.894457454330663</v>
       </c>
     </row>
   </sheetData>

--- a/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
+++ b/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorgan/Documents/PostDoc/Diff_Tax_Analysis/Theoretical_Analysis/Interpolat_Diff_Tax/Money_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AAD0B-AF8C-A749-9FF7-625BF3A26444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C99E3-B417-D94D-B797-E9DB1F6745C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="760" windowWidth="15060" windowHeight="14140" xr2:uid="{41DE4A9E-354A-C947-8AF3-BFD4A954794B}"/>
+    <workbookView xWindow="100" yWindow="580" windowWidth="26520" windowHeight="14140" xr2:uid="{41DE4A9E-354A-C947-8AF3-BFD4A954794B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Antibiotic Class</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Price8</t>
+  </si>
+  <si>
+    <t>Cephalosporins</t>
+  </si>
+  <si>
+    <t>average_price</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD6BD6-5BEF-9C4F-865E-676CD3C4F9B8}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +611,7 @@
         <v>453.53999999999996</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>J4*0.15</f>
         <v>68.030999999999992</v>
       </c>
       <c r="L4">
@@ -751,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>10.894457454330663</v>
+        <v>9.8428938354397566</v>
       </c>
       <c r="L10">
         <v>292.47699999999998</v>
@@ -772,23 +778,68 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="L11">
+        <f>J11*I18</f>
+        <v>2165.4366437967465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>540</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>433.33330000000001</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(B12:E12)</f>
+        <v>618.33332500000006</v>
+      </c>
+      <c r="K12">
+        <f>J12*0.15</f>
+        <v>92.749998750000003</v>
+      </c>
+      <c r="L12">
+        <v>18964.994444444445</v>
+      </c>
+      <c r="M12">
+        <f>K12/L12</f>
+        <v>4.8905892918502773E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(M2:M9)</f>
-        <v>3.7248937367145671E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+        <f>AVERAGE(M2:M12)</f>
+        <v>3.3653565358779516E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(K2:K12)</f>
+        <v>50.774878871403615</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="I18">
         <f>L10*I16</f>
-        <v>10.894457454330663</v>
+        <v>9.8428938354397566</v>
       </c>
     </row>
   </sheetData>

--- a/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
+++ b/Interpolat_Diff_Tax/Money_Analysis/chinese_price_scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorgan/Documents/PostDoc/Diff_Tax_Analysis/Theoretical_Analysis/Interpolat_Diff_Tax/Money_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C99E3-B417-D94D-B797-E9DB1F6745C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D699B7-D9AF-754A-AC82-CBBEAA09E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="580" windowWidth="26520" windowHeight="14140" xr2:uid="{41DE4A9E-354A-C947-8AF3-BFD4A954794B}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,8 +779,8 @@
         <v>33</v>
       </c>
       <c r="L11">
-        <f>J11*I18</f>
-        <v>2165.4366437967465</v>
+        <f>K11/I16</f>
+        <v>980.5796101598188</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -813,6 +813,18 @@
       <c r="M12">
         <f>K12/L12</f>
         <v>4.8905892918502773E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f>K15*I16</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f>33/I16</f>
+        <v>980.5796101598188</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
